--- a/src/main/webapp/excel/upload_interface_template.xlsx
+++ b/src/main/webapp/excel/upload_interface_template.xlsx
@@ -110,20 +110,6 @@
   </si>
   <si>
     <t>正常用户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "ROOT": {
-    "REQUEST_INFO": {
-      "BUSI_INFO_LIST": {
-        "BUSI_INFO": {
-          "ID_NO": "21000117089809"
-        }
-      }
-    }
-  }
-}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -175,38 +161,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>协议类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HTTP、WebService、Socket</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>报文类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>JSON、XML、URL、FIXED、OPT</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>报文名和场景名留空代表不新建默认报文和场景</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -231,15 +185,61 @@
     <t>1</t>
   </si>
   <si>
+    <t>sUserPrcQry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "ROOT": {
+    "REQUEST_INFO": {
+      "BUSI_INFO_LIST": {
+        "BUSI_INFO": {
+          "ID_NO": "21000117089809"
+        }
+      }
+    }
+  }
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>报文类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JSON、XML、URL、FIXED(固定格式)、OPT(自定义不限格式)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>报文格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sUserPrcQry</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口类型</t>
+    <r>
+      <t>协议类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HTTP、HTTPS、WebService、Socket、WebSocket、Dubbo</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1313,16 +1313,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1334,7 +1334,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>10</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1354,22 +1354,22 @@
         <v>5</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
@@ -1528,11 +1528,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"SL,CX"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
-      <formula1>"HTTP,Socket,WebService"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"JSON,XML,URL,FIXED,OPT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>"HTTP,HTTPS,Socket,WebService,WebSocket,Dubbo"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1548,7 +1548,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1571,17 +1571,17 @@
     </row>
     <row r="3" spans="1:4" ht="20.25">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.25">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.25">
       <c r="A7" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
